--- a/systemFile/template_mettexport.xlsx
+++ b/systemFile/template_mettexport.xlsx
@@ -1,38 +1,857 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webroot\ForestApply\systemFile\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="保護區資料表" sheetId="1" r:id="rId1"/>
+    <sheet name="保護區的壓力表" sheetId="2" r:id="rId2"/>
+    <sheet name="經營管理評量表" sheetId="3" r:id="rId3"/>
+    <sheet name="訪談基本資料" sheetId="4" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="169">
+  <si>
+    <t>說明</t>
+  </si>
+  <si>
+    <t>年度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>區域</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>序號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>評量ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>設立日期</t>
+  </si>
+  <si>
+    <t>法源依據</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>法源是否更動？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有變動請說明</t>
+  </si>
+  <si>
+    <t>職權範圍與保護區重疊、或與保護區經營管理運作有競合關係的法規</t>
+  </si>
+  <si>
+    <t>保護區大小 (公頃)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陸域</t>
+  </si>
+  <si>
+    <t>海域</t>
+  </si>
+  <si>
+    <t>五年內保護區大小是否有產生變動</t>
+  </si>
+  <si>
+    <t>如有變動請說明</t>
+  </si>
+  <si>
+    <t>五年內產權是否有產生變動？</t>
+  </si>
+  <si>
+    <t>產權所有者</t>
+  </si>
+  <si>
+    <t>類型/公頃/百分比</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理機關</t>
+  </si>
+  <si>
+    <t>主管機關</t>
+  </si>
+  <si>
+    <t>經營管理機關</t>
+  </si>
+  <si>
+    <t>備註</t>
+  </si>
+  <si>
+    <t>人力資源</t>
+  </si>
+  <si>
+    <t>類別/人次/工作比重</t>
+  </si>
+  <si>
+    <t>設立保護區的主要價值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物多樣性價值</t>
+  </si>
+  <si>
+    <t>地景價值</t>
+  </si>
+  <si>
+    <t>文化價值</t>
+  </si>
+  <si>
+    <t>經濟價值</t>
+  </si>
+  <si>
+    <t>教育價值</t>
+  </si>
+  <si>
+    <t>其他社會價值</t>
+  </si>
+  <si>
+    <t>自行填寫價值</t>
+  </si>
+  <si>
+    <t>保護區的經營管理目標</t>
+  </si>
+  <si>
+    <t>其他單位投入</t>
+  </si>
+  <si>
+    <t>單位/金額</t>
+  </si>
+  <si>
+    <t>計畫成果報告
+計畫名稱/執行期間/經費/發包單位/承辦單位/報告書/其他檔案</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>近五年年度預算</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>金額</t>
+  </si>
+  <si>
+    <t>保育價值與目標</t>
+  </si>
+  <si>
+    <t>基本資料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次評量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>變化趨勢</t>
+  </si>
+  <si>
+    <t>影響範圍</t>
+  </si>
+  <si>
+    <t>影響程度</t>
+  </si>
+  <si>
+    <t>影響持續性</t>
+  </si>
+  <si>
+    <t>1.1 房屋與都市化：
+都市、城鎮及聚落，及伴隨建物的軟硬體發展 (如：廣場、路燈、道路、下水道等公共設施)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.2 其他威脅：
+其他可能造成保護區負面影響的威脅項目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.1 特殊文化與社會威脅：
+如：文化連結、傳統知識及/ 或經營管理作法的喪失；重要文化場址價值自然地衰退；文化遺產建築、花園或場址等受到破壞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.5 其他影響：
+其他氣候改變的影響或上述沒有包含到的嚴重氣候事件 (列出具體的影響形式)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.4 侵蝕與淤積/沉澱：
+土壤之侵蝕、淤積或沉澱所造成之地景改變 (如海岸線或河床改變)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.3 山崩/地滑：
+山崩、雪崩或地滑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.2 地震/海嘯：
+地震和相關事件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1 火山：
+火山活動</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.5 空氣污染物：
+點源和非點源的空氣汙染物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.4 垃圾與固體廢物：
+垃圾與其他固體物質，包括會纏住野生動物的物體</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.3 農業與林業廢水：
+來自農業、造林及水產養殖業系統，包括營養物、有毒化學物質及/或沉積物的水媒汙染物，及其在施用地點的影響 (如過量的肥料與殺蟲劑)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.2 工業與軍事廢水：
+來自工業與軍事來源，包括採礦、能源生產及其他資源採集工業，如：營養物、有毒化學物質及/或沉積物的水媒汙染物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.1 家庭污水與城市廢水：
+來自家戶與都市區域，包括營養物、有毒化學物質，及/或沉積物的水媒汙水與非點源溢流</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.4 其他：
+由無法鑑定為本土或外來種之問題動物、植物、微生物或病原體，或由未知病原體引起之疾病、具傳染性的病毒導致生育率降低或死亡率增加等原因，影響生態系原有之平衡與生物多樣性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.3 引進遺傳物質：
+遺傳物質之引進 (如基因改造有機物)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.2 本土問題物種：
+原生於該生態系之有害動物、植物、微生物及其他病原體，直接或間接因為人為活動失去其在該生態系中之平衡或非正常出現</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.1 外來入侵物種：
+藉由人類活動直接或間接引進與傳播的非原生於該生態系之有害動物、植物、微生物及其他病原體</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.3 其他生態系統修改：
+其他經營管理自然系統以增進人類福祉所造成棲地轉變或劣化的行動 (如：棲地破碎化、島嶼化、發生邊緣效應或基石物種減損等)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.2 水壩與水管理/使用：
+刻意或因其他活動原因而改變水的自然流動</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.1 防火與滅火：
+在其自然變化範圍外，增加或減少火災的頻率及(或)強度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3 工作與其他活動‵：
+除了遊憩或軍事行動，其他人們留駐於自然環境或在其間旅行的活動 (如：宗教、營建或運輸使用、飲水點與水壩、蓄意破壞行為，或對保護區員工與遊客的壓力)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2 戰爭、內亂及軍事演習：
+一次性或非永久性之正規軍事行動或準軍事行動</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1 遊憩活動：
+以休閒為由，花時間待在自然環境、或者搭乘交通工具在既有交通廊道外旅行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4 漁撈及收穫水產資源：
+為商業、休閒娛樂、生計、科研或文化之目的，或管控或殘害目的，垂釣與捕撈水生、野生動植物資源，包括意外死亡/誤捕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3 木材伐採：
+為木材、纖維、或燃料伐採樹木與其他木本植物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2 採集陸生植物：
+為商業、休閒娛樂、生計、科研或文化之目的，或管控目的，採集植物、真菌及其他非林木/非動物產品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1狩獵與採集陸域動物
+殺死或陷捉陸生野生動物或動物產製品用於商業、休閒娛樂、生計、科研或文化之目的，或管控/殘害之理由，包括意外死亡/誤捕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4 飛行路徑：
+航空與太空運輸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3 航道：
+淡水、海洋水面與水下的航路交通</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2 公用設備及服務項目：
+能源與資源的傳輸 (例如電力電纜線，電話線)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1 公路與鐵道：
+道路與專用軌道等地面交通 (包括路殺動物)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3 可再生能源：
+探勘、開發及生產可再生能源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2 採礦與採石：
+探勘、開發及生產礦物與石材</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 石油與天然氣鑽探：
+探勘、開發及生產石油和其它液態烴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4 海水與淡水養殖：
+將水生動物養殖於一固定場域，餵食飼料或非在地的資源，將孵化魚苗放養於大海。 (箱網養殖)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2 商業與工業區：
+工廠與其他商業中心</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3 觀光遊憩區：
+有大量人為開發的觀光遊憩區 (通常指保護週邊的大量開發，如高爾夫球場、度假村、主題遊樂園…等觀光遊憩區的開發)：有大量人為開發的觀光遊憩區 (通常指保護週邊的大量開發，如高爾夫球場、度假村、主題遊樂園…等觀光遊憩區的開發)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 一年生及多年生非木材作物 (種植行為)：
+用於食品、飼料、纖維、燃料或其它用途的作物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 人工林與紙漿材：
+在天然林外以生產木材與木材纖維為目的而種植的林木，通常非屬本地種</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3 畜牧業與牧場經營：
+分為圈養及放牧兩種：將家畜飼養於一固定場域，餵食飼料或非在地的資源，是為圈養；讓家畜或半家畜在自然棲地的支持下，於野外自由活動，是為放牧。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.6 超量能源：
+會干擾野生動物或生態系統的熱、聲音或光 (如熱汙染、光害等)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.1 棲地改變：
+棲地組成與位置的重大改變</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.2 乾旱：
+降雨量低於正常變異範圍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.3 極端氣溫：
+氣溫超過或低於正常變異範圍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.4 暴雨與洪水：
+極端降雨或強風事件，或暴風雨的季節性巨大轉變</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分數</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>評論</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 保護區目標
+保護區是否有確定的目標？又是否有根據此目標進行經營管理？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 保護區設計
+保護區的大小與形狀是否恰當而能保護亟欲關注的物種、棲地、生態過程及集水區？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 保護區界線
+保護區的界線是否清楚且眾所皆知？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 經營管理計畫
+有無被執行的經營管理計畫？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 法律的執行情況
+員工 (負責保護區經營管理的人員) 能否充分執行保護區的法規？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 保護區法規規範
+是否有適當的法規以控制土地利用與人為活動 (如打獵)？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 法律地位
+保護區是否具有法律上的身分 (或者是由契約或其他形式合約所涵蓋的私人保護區)？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7a說明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7b說明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7c說明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 常態性的工作計畫 (年度工作計畫)
+是否有被執行的常態性工作計畫？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 資源清單
+是否有被執行的常態性工作計畫？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10. 保護系統
+保護區內是否具有控管進出/ 資源使用的系統？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.研究
+有無以經營管理為導向的調查與研究工作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12. 資源經營管理
+有無積極的資源經營管理？ (有些保護區雖不需要積極的人為介入，但若能了解保護區的狀況，並予以處理，即為積極)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13. 員工數量
+是否雇用足夠的人力在現場經營管理保護區？ (以人事費雇用的人力)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>14A. 員工訓練
+員工是否受到適當的訓練以符合且應對經營管理目標？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>14B. 員工技能
+員工是否有足夠的技能以符合且應對經營管理目標？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15. 現有經費
+現有經費是否充足？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16. 經費保障
+經費是否穩定？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17. 經費經營管理
+經費是否有得到管理以符合關鍵的經營管理需求？ (經費的有效利用)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.設備
+設備是否符合且應對經營管理需求？ (包含溝通工具、交通運輸設施、現場設備、員工設施等)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19. 設備維護
+設備是否得到適當維護？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20. 教育及推廣
+有無規劃扣連目標和需求的教育計畫？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>21. 土地與水資源利用規劃
+土地與水資源利用規劃有無考量到保護區並有助於保育目標的達成？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>21a</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>21b</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>21c</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>21c說明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>21b說明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>21a說明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否計分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分數</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.在地社區（非原住民）
+居住或是鄰近於保護區的在地社區是否投入經營管理決策中？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不記分理由</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>24. 原住民族在地社區（原住民）
+原住民是否投入經營管理決策中？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>24b</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>24c</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>24c說明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>24b說明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>22. 行政邊界或商業上的鄰居
+有無和相鄰的土地與水資源使用者合作？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>25. 經濟利益
+保護區有無提供在地社區如收入、就業及環境服務的報償作為經濟誘因？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>26. 監測與評量
+保護區活動有無相關效能的監測？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>27. 訪客設施
+是否有適宜的訪客設施？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>28. 商業旅遊業者
+商業旅遊業者是否對保護區的經營管理做出貢獻？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>29. 費用
+如果進行收費 (如入園費或罰款)，會否有助於保護區的經營管理？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30. 價值狀況
+相對於上次評量時，保護區的重要價值現況如何？ (若為首次評量，則和公告劃設時比較)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30a說明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30b</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30b說明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30c</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30c說明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7a</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7b</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7c</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>24a</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>24a說明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30a</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>序號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所屬單位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>填寫姓名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>職稱</t>
+  </si>
+  <si>
+    <t>連絡電話</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>聯繫email</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>區域名稱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>填寫帳號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立時間</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新時間</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否保留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>/1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新帳號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新時間</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -40,18 +859,233 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="35">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="3"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="備註" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -341,13 +1375,3263 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="8.875" customWidth="1"/>
+    <col min="16" max="16" width="22" customWidth="1"/>
+    <col min="20" max="20" width="28.125" customWidth="1"/>
+    <col min="35" max="35" width="12.25" customWidth="1"/>
+    <col min="37" max="37" width="28.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" s="11" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="17"/>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="AP1" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM2" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="5">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="U1:AH1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:JP6"/>
+  <sheetViews>
+    <sheetView topLeftCell="IT1" workbookViewId="0">
+      <selection activeCell="IQ1" sqref="IQ1:IV1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="275" max="275" width="18.625" customWidth="1"/>
+    <col min="276" max="276" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:276" s="5" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV1" s="21"/>
+      <c r="AW1" s="21"/>
+      <c r="AX1" s="21"/>
+      <c r="AY1" s="21"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB1" s="21"/>
+      <c r="BC1" s="21"/>
+      <c r="BD1" s="21"/>
+      <c r="BE1" s="21"/>
+      <c r="BF1" s="22"/>
+      <c r="BG1" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="BH1" s="21"/>
+      <c r="BI1" s="21"/>
+      <c r="BJ1" s="21"/>
+      <c r="BK1" s="21"/>
+      <c r="BL1" s="22"/>
+      <c r="BM1" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN1" s="21"/>
+      <c r="BO1" s="21"/>
+      <c r="BP1" s="21"/>
+      <c r="BQ1" s="21"/>
+      <c r="BR1" s="22"/>
+      <c r="BS1" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT1" s="21"/>
+      <c r="BU1" s="21"/>
+      <c r="BV1" s="21"/>
+      <c r="BW1" s="21"/>
+      <c r="BX1" s="22"/>
+      <c r="BY1" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="21"/>
+      <c r="CA1" s="21"/>
+      <c r="CB1" s="21"/>
+      <c r="CC1" s="21"/>
+      <c r="CD1" s="22"/>
+      <c r="CE1" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="CF1" s="21"/>
+      <c r="CG1" s="21"/>
+      <c r="CH1" s="21"/>
+      <c r="CI1" s="21"/>
+      <c r="CJ1" s="22"/>
+      <c r="CK1" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="CL1" s="21"/>
+      <c r="CM1" s="21"/>
+      <c r="CN1" s="21"/>
+      <c r="CO1" s="21"/>
+      <c r="CP1" s="22"/>
+      <c r="CQ1" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="CR1" s="21"/>
+      <c r="CS1" s="21"/>
+      <c r="CT1" s="21"/>
+      <c r="CU1" s="21"/>
+      <c r="CV1" s="22"/>
+      <c r="CW1" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="CX1" s="21"/>
+      <c r="CY1" s="21"/>
+      <c r="CZ1" s="21"/>
+      <c r="DA1" s="21"/>
+      <c r="DB1" s="22"/>
+      <c r="DC1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="DD1" s="21"/>
+      <c r="DE1" s="21"/>
+      <c r="DF1" s="21"/>
+      <c r="DG1" s="21"/>
+      <c r="DH1" s="22"/>
+      <c r="DI1" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="DJ1" s="21"/>
+      <c r="DK1" s="21"/>
+      <c r="DL1" s="21"/>
+      <c r="DM1" s="21"/>
+      <c r="DN1" s="22"/>
+      <c r="DO1" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="DP1" s="21"/>
+      <c r="DQ1" s="21"/>
+      <c r="DR1" s="21"/>
+      <c r="DS1" s="21"/>
+      <c r="DT1" s="22"/>
+      <c r="DU1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="DV1" s="21"/>
+      <c r="DW1" s="21"/>
+      <c r="DX1" s="21"/>
+      <c r="DY1" s="21"/>
+      <c r="DZ1" s="22"/>
+      <c r="EA1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="EB1" s="19"/>
+      <c r="EC1" s="19"/>
+      <c r="ED1" s="19"/>
+      <c r="EE1" s="19"/>
+      <c r="EF1" s="20"/>
+      <c r="EG1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="EH1" s="19"/>
+      <c r="EI1" s="19"/>
+      <c r="EJ1" s="19"/>
+      <c r="EK1" s="19"/>
+      <c r="EL1" s="20"/>
+      <c r="EM1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="EN1" s="19"/>
+      <c r="EO1" s="19"/>
+      <c r="EP1" s="19"/>
+      <c r="EQ1" s="19"/>
+      <c r="ER1" s="20"/>
+      <c r="ES1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="ET1" s="19"/>
+      <c r="EU1" s="19"/>
+      <c r="EV1" s="19"/>
+      <c r="EW1" s="19"/>
+      <c r="EX1" s="20"/>
+      <c r="EY1" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="EZ1" s="19"/>
+      <c r="FA1" s="19"/>
+      <c r="FB1" s="19"/>
+      <c r="FC1" s="19"/>
+      <c r="FD1" s="20"/>
+      <c r="FE1" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="FF1" s="19"/>
+      <c r="FG1" s="19"/>
+      <c r="FH1" s="19"/>
+      <c r="FI1" s="19"/>
+      <c r="FJ1" s="20"/>
+      <c r="FK1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="FL1" s="19"/>
+      <c r="FM1" s="19"/>
+      <c r="FN1" s="19"/>
+      <c r="FO1" s="19"/>
+      <c r="FP1" s="20"/>
+      <c r="FQ1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="FR1" s="19"/>
+      <c r="FS1" s="19"/>
+      <c r="FT1" s="19"/>
+      <c r="FU1" s="19"/>
+      <c r="FV1" s="20"/>
+      <c r="FW1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="FX1" s="19"/>
+      <c r="FY1" s="19"/>
+      <c r="FZ1" s="19"/>
+      <c r="GA1" s="19"/>
+      <c r="GB1" s="20"/>
+      <c r="GC1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="GD1" s="19"/>
+      <c r="GE1" s="19"/>
+      <c r="GF1" s="19"/>
+      <c r="GG1" s="19"/>
+      <c r="GH1" s="20"/>
+      <c r="GI1" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="GJ1" s="19"/>
+      <c r="GK1" s="19"/>
+      <c r="GL1" s="19"/>
+      <c r="GM1" s="19"/>
+      <c r="GN1" s="20"/>
+      <c r="GO1" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="GP1" s="19"/>
+      <c r="GQ1" s="19"/>
+      <c r="GR1" s="19"/>
+      <c r="GS1" s="19"/>
+      <c r="GT1" s="20"/>
+      <c r="GU1" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="GV1" s="19"/>
+      <c r="GW1" s="19"/>
+      <c r="GX1" s="19"/>
+      <c r="GY1" s="19"/>
+      <c r="GZ1" s="20"/>
+      <c r="HA1" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="HB1" s="19"/>
+      <c r="HC1" s="19"/>
+      <c r="HD1" s="19"/>
+      <c r="HE1" s="19"/>
+      <c r="HF1" s="20"/>
+      <c r="HG1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="HH1" s="19"/>
+      <c r="HI1" s="19"/>
+      <c r="HJ1" s="19"/>
+      <c r="HK1" s="19"/>
+      <c r="HL1" s="20"/>
+      <c r="HM1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="HN1" s="19"/>
+      <c r="HO1" s="19"/>
+      <c r="HP1" s="19"/>
+      <c r="HQ1" s="19"/>
+      <c r="HR1" s="20"/>
+      <c r="HS1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="HT1" s="19"/>
+      <c r="HU1" s="19"/>
+      <c r="HV1" s="19"/>
+      <c r="HW1" s="19"/>
+      <c r="HX1" s="20"/>
+      <c r="HY1" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="HZ1" s="19"/>
+      <c r="IA1" s="19"/>
+      <c r="IB1" s="19"/>
+      <c r="IC1" s="19"/>
+      <c r="ID1" s="20"/>
+      <c r="IE1" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="IF1" s="19"/>
+      <c r="IG1" s="19"/>
+      <c r="IH1" s="19"/>
+      <c r="II1" s="19"/>
+      <c r="IJ1" s="20"/>
+      <c r="IK1" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="IL1" s="19"/>
+      <c r="IM1" s="19"/>
+      <c r="IN1" s="19"/>
+      <c r="IO1" s="19"/>
+      <c r="IP1" s="20"/>
+      <c r="IQ1" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="IR1" s="19"/>
+      <c r="IS1" s="19"/>
+      <c r="IT1" s="19"/>
+      <c r="IU1" s="19"/>
+      <c r="IV1" s="20"/>
+      <c r="IW1" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="IX1" s="19"/>
+      <c r="IY1" s="19"/>
+      <c r="IZ1" s="19"/>
+      <c r="JA1" s="19"/>
+      <c r="JB1" s="20"/>
+      <c r="JC1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="JD1" s="19"/>
+      <c r="JE1" s="19"/>
+      <c r="JF1" s="19"/>
+      <c r="JG1" s="19"/>
+      <c r="JH1" s="20"/>
+      <c r="JI1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="JJ1" s="19"/>
+      <c r="JK1" s="19"/>
+      <c r="JL1" s="19"/>
+      <c r="JM1" s="19"/>
+      <c r="JN1" s="20"/>
+      <c r="JO1" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="JP1" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:276" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AY2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="BF2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="BH2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="BK2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="BN2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="BO2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="BQ2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="BR2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="BS2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="BT2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="BU2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="BW2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="BX2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="BY2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="BZ2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="CC2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="CD2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="CE2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="CF2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="CG2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="CH2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="CI2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="CJ2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="CK2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="CL2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="CM2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="CN2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="CO2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="CP2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="CQ2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="CR2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="CS2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="CT2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="CU2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="CV2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="CW2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="CX2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="CY2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="CZ2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="DA2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="DB2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="DC2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="DD2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="DE2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="DF2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="DG2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="DH2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="DI2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="DJ2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="DK2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="DL2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="DM2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="DN2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="DO2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="DP2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="DQ2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="DR2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="DS2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="DT2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="DU2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="DV2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="DW2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="DX2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="DY2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="DZ2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="EA2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="EB2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="EC2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="ED2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="EE2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="EF2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="EG2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="EH2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="EI2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="EJ2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="EK2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="EL2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="EM2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="EN2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="EO2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="EP2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="EQ2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="ER2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="ES2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="ET2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="EU2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="EV2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="EW2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="EX2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="EY2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="EZ2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="FA2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="FB2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="FC2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="FD2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="FE2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="FF2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="FG2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="FH2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="FI2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="FJ2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="FK2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="FL2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="FM2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="FN2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="FO2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="FP2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="FQ2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="FR2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="FS2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="FT2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="FU2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="FV2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="FW2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="FX2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="FY2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="FZ2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="GA2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="GB2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="GC2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="GD2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="GE2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="GF2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="GG2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="GH2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="GI2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="GJ2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="GK2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="GL2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="GM2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="GN2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="GO2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="GP2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="GQ2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="GR2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="GS2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="GT2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="GU2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="GV2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="GW2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="GX2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="GY2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="GZ2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="HA2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="HB2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="HC2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="HD2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="HE2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="HF2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="HG2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="HH2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="HI2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="HJ2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="HK2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="HL2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="HM2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="HN2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="HO2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="HP2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="HQ2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="HR2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="HS2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="HT2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="HU2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="HV2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="HW2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="HX2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="HY2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="HZ2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="IA2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="IB2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="IC2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="ID2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="IE2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="IF2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="IG2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="IH2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="II2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="IJ2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="IK2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="IL2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="IM2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="IN2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="IO2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="IP2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="IQ2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="IR2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="IS2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="IT2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="IU2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="IV2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="IW2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="IX2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="IY2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="IZ2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="JA2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="JB2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="JC2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="JD2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="JE2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="JF2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="JG2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="JH2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="JI2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="JJ2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="JK2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="JL2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="JM2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="JN2" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:276" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="3"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3"/>
+      <c r="BO4" s="3"/>
+      <c r="BP4" s="3"/>
+      <c r="BQ4" s="3"/>
+      <c r="BR4" s="3"/>
+      <c r="BS4" s="3"/>
+      <c r="BT4" s="3"/>
+      <c r="BU4" s="3"/>
+      <c r="BV4" s="3"/>
+      <c r="BW4" s="3"/>
+      <c r="BX4" s="3"/>
+      <c r="BY4" s="3"/>
+      <c r="BZ4" s="3"/>
+      <c r="CA4" s="3"/>
+      <c r="CB4" s="3"/>
+      <c r="CC4" s="3"/>
+      <c r="CD4" s="3"/>
+      <c r="CE4" s="3"/>
+      <c r="CF4" s="3"/>
+      <c r="CG4" s="3"/>
+      <c r="CH4" s="3"/>
+      <c r="CI4" s="3"/>
+      <c r="CJ4" s="3"/>
+      <c r="CK4" s="3"/>
+      <c r="CL4" s="3"/>
+      <c r="CM4" s="3"/>
+      <c r="CN4" s="3"/>
+      <c r="CO4" s="3"/>
+      <c r="CP4" s="3"/>
+      <c r="CQ4" s="3"/>
+      <c r="CR4" s="3"/>
+      <c r="CS4" s="3"/>
+      <c r="CT4" s="3"/>
+      <c r="CU4" s="3"/>
+      <c r="CV4" s="3"/>
+      <c r="CW4" s="3"/>
+      <c r="CX4" s="3"/>
+      <c r="CY4" s="3"/>
+      <c r="CZ4" s="3"/>
+      <c r="DA4" s="3"/>
+      <c r="DB4" s="3"/>
+      <c r="DC4" s="3"/>
+      <c r="DD4" s="3"/>
+      <c r="DE4" s="3"/>
+      <c r="DF4" s="3"/>
+      <c r="DG4" s="3"/>
+      <c r="DH4" s="3"/>
+      <c r="DI4" s="3"/>
+      <c r="DJ4" s="3"/>
+      <c r="DK4" s="3"/>
+      <c r="DL4" s="3"/>
+      <c r="DM4" s="3"/>
+      <c r="DN4" s="3"/>
+      <c r="DO4" s="3"/>
+      <c r="DP4" s="3"/>
+      <c r="DQ4" s="3"/>
+      <c r="DR4" s="3"/>
+      <c r="DS4" s="3"/>
+      <c r="DT4" s="3"/>
+      <c r="DU4" s="3"/>
+      <c r="DV4" s="3"/>
+      <c r="DW4" s="3"/>
+      <c r="DX4" s="3"/>
+      <c r="DY4" s="3"/>
+      <c r="DZ4" s="3"/>
+      <c r="EA4" s="3"/>
+      <c r="EB4" s="3"/>
+      <c r="EC4" s="3"/>
+      <c r="ED4" s="3"/>
+      <c r="EE4" s="3"/>
+      <c r="EF4" s="3"/>
+      <c r="EG4" s="3"/>
+      <c r="EH4" s="3"/>
+      <c r="EI4" s="3"/>
+      <c r="EJ4" s="3"/>
+      <c r="EK4" s="3"/>
+      <c r="EL4" s="3"/>
+      <c r="EM4" s="3"/>
+      <c r="EN4" s="3"/>
+      <c r="EO4" s="3"/>
+      <c r="EP4" s="3"/>
+      <c r="EQ4" s="3"/>
+      <c r="ER4" s="3"/>
+      <c r="ES4" s="3"/>
+      <c r="ET4" s="3"/>
+      <c r="EU4" s="3"/>
+      <c r="EV4" s="3"/>
+      <c r="EW4" s="3"/>
+      <c r="EX4" s="3"/>
+      <c r="EY4" s="3"/>
+      <c r="EZ4" s="3"/>
+      <c r="FA4" s="3"/>
+      <c r="FB4" s="3"/>
+      <c r="FC4" s="3"/>
+      <c r="FD4" s="3"/>
+      <c r="FE4" s="3"/>
+      <c r="FF4" s="3"/>
+      <c r="FG4" s="3"/>
+      <c r="FH4" s="3"/>
+      <c r="FI4" s="3"/>
+      <c r="FJ4" s="3"/>
+      <c r="FK4" s="3"/>
+      <c r="FL4" s="3"/>
+      <c r="FM4" s="3"/>
+      <c r="FN4" s="3"/>
+      <c r="FO4" s="3"/>
+      <c r="FP4" s="3"/>
+      <c r="FQ4" s="3"/>
+      <c r="FR4" s="3"/>
+      <c r="FS4" s="3"/>
+      <c r="FT4" s="3"/>
+      <c r="FU4" s="3"/>
+      <c r="FV4" s="3"/>
+      <c r="FW4" s="3"/>
+      <c r="FX4" s="3"/>
+      <c r="FY4" s="3"/>
+      <c r="FZ4" s="3"/>
+      <c r="GA4" s="3"/>
+      <c r="GB4" s="3"/>
+      <c r="GC4" s="3"/>
+      <c r="GD4" s="3"/>
+      <c r="GE4" s="3"/>
+      <c r="GF4" s="3"/>
+      <c r="GG4" s="3"/>
+      <c r="GH4" s="3"/>
+      <c r="GI4" s="3"/>
+      <c r="GJ4" s="3"/>
+      <c r="GK4" s="3"/>
+      <c r="GL4" s="3"/>
+      <c r="GM4" s="3"/>
+      <c r="GN4" s="3"/>
+      <c r="GO4" s="3"/>
+      <c r="GP4" s="3"/>
+      <c r="GQ4" s="3"/>
+      <c r="GR4" s="3"/>
+      <c r="GS4" s="3"/>
+      <c r="GT4" s="3"/>
+      <c r="GU4" s="3"/>
+      <c r="GV4" s="3"/>
+      <c r="GW4" s="3"/>
+      <c r="GX4" s="3"/>
+      <c r="GY4" s="3"/>
+      <c r="GZ4" s="3"/>
+      <c r="HA4" s="3"/>
+      <c r="HB4" s="3"/>
+      <c r="HC4" s="3"/>
+      <c r="HD4" s="3"/>
+      <c r="HE4" s="3"/>
+      <c r="HF4" s="3"/>
+      <c r="HG4" s="3"/>
+      <c r="HH4" s="3"/>
+      <c r="HI4" s="3"/>
+      <c r="HJ4" s="3"/>
+      <c r="HK4" s="3"/>
+      <c r="HL4" s="3"/>
+      <c r="HM4" s="3"/>
+      <c r="HN4" s="3"/>
+      <c r="HO4" s="3"/>
+      <c r="HP4" s="3"/>
+      <c r="HQ4" s="3"/>
+      <c r="HR4" s="3"/>
+      <c r="HS4" s="3"/>
+      <c r="HT4" s="3"/>
+      <c r="HU4" s="3"/>
+      <c r="HV4" s="3"/>
+      <c r="HW4" s="3"/>
+      <c r="HX4" s="3"/>
+      <c r="HY4" s="3"/>
+      <c r="HZ4" s="3"/>
+      <c r="IA4" s="3"/>
+      <c r="IB4" s="3"/>
+      <c r="IC4" s="3"/>
+      <c r="ID4" s="3"/>
+      <c r="IE4" s="3"/>
+      <c r="IF4" s="3"/>
+      <c r="IG4" s="3"/>
+      <c r="IH4" s="3"/>
+      <c r="II4" s="3"/>
+      <c r="IJ4" s="3"/>
+      <c r="IK4" s="3"/>
+      <c r="IL4" s="3"/>
+      <c r="IM4" s="3"/>
+      <c r="IN4" s="3"/>
+      <c r="IO4" s="3"/>
+      <c r="IP4" s="3"/>
+      <c r="IQ4" s="3"/>
+      <c r="IR4" s="3"/>
+      <c r="IS4" s="3"/>
+      <c r="IT4" s="3"/>
+      <c r="IU4" s="3"/>
+      <c r="IV4" s="3"/>
+      <c r="IW4" s="3"/>
+      <c r="IX4" s="3"/>
+      <c r="IY4" s="3"/>
+      <c r="IZ4" s="3"/>
+      <c r="JA4" s="3"/>
+      <c r="JB4" s="3"/>
+      <c r="JC4" s="3"/>
+      <c r="JD4" s="3"/>
+      <c r="JE4" s="3"/>
+      <c r="JF4" s="3"/>
+      <c r="JG4" s="3"/>
+      <c r="JH4" s="3"/>
+      <c r="JI4" s="3"/>
+      <c r="JJ4" s="3"/>
+      <c r="JK4" s="3"/>
+      <c r="JL4" s="3"/>
+      <c r="JM4" s="3"/>
+      <c r="JN4" s="3"/>
+    </row>
+    <row r="5" spans="1:276" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="3"/>
+      <c r="BK5" s="3"/>
+      <c r="BL5" s="3"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="3"/>
+      <c r="BO5" s="3"/>
+      <c r="BP5" s="3"/>
+      <c r="BQ5" s="3"/>
+      <c r="BR5" s="3"/>
+      <c r="BS5" s="3"/>
+      <c r="BT5" s="3"/>
+      <c r="BU5" s="3"/>
+      <c r="BV5" s="3"/>
+      <c r="BW5" s="3"/>
+      <c r="BX5" s="3"/>
+      <c r="BY5" s="3"/>
+      <c r="BZ5" s="3"/>
+      <c r="CA5" s="3"/>
+      <c r="CB5" s="3"/>
+      <c r="CC5" s="3"/>
+      <c r="CD5" s="3"/>
+      <c r="CE5" s="3"/>
+      <c r="CF5" s="3"/>
+      <c r="CG5" s="3"/>
+      <c r="CH5" s="3"/>
+      <c r="CI5" s="3"/>
+      <c r="CJ5" s="3"/>
+      <c r="CK5" s="3"/>
+      <c r="CL5" s="3"/>
+      <c r="CM5" s="3"/>
+      <c r="CN5" s="3"/>
+      <c r="CO5" s="3"/>
+      <c r="CP5" s="3"/>
+      <c r="CQ5" s="3"/>
+      <c r="CR5" s="3"/>
+      <c r="CS5" s="3"/>
+      <c r="CT5" s="3"/>
+      <c r="CU5" s="3"/>
+      <c r="CV5" s="3"/>
+      <c r="CW5" s="3"/>
+      <c r="CX5" s="3"/>
+      <c r="CY5" s="3"/>
+      <c r="CZ5" s="3"/>
+      <c r="DA5" s="3"/>
+      <c r="DB5" s="3"/>
+      <c r="DC5" s="3"/>
+      <c r="DD5" s="3"/>
+      <c r="DE5" s="3"/>
+      <c r="DF5" s="3"/>
+      <c r="DG5" s="3"/>
+      <c r="DH5" s="3"/>
+      <c r="DI5" s="3"/>
+      <c r="DJ5" s="3"/>
+      <c r="DK5" s="3"/>
+      <c r="DL5" s="3"/>
+      <c r="DM5" s="3"/>
+      <c r="DN5" s="3"/>
+      <c r="DO5" s="3"/>
+      <c r="DP5" s="3"/>
+      <c r="DQ5" s="3"/>
+      <c r="DR5" s="3"/>
+      <c r="DS5" s="3"/>
+      <c r="DT5" s="3"/>
+      <c r="DU5" s="3"/>
+      <c r="DV5" s="3"/>
+      <c r="DW5" s="3"/>
+      <c r="DX5" s="3"/>
+      <c r="DY5" s="3"/>
+      <c r="DZ5" s="3"/>
+      <c r="EA5" s="3"/>
+      <c r="EB5" s="3"/>
+      <c r="EC5" s="3"/>
+      <c r="ED5" s="3"/>
+      <c r="EE5" s="3"/>
+      <c r="EF5" s="3"/>
+      <c r="EG5" s="3"/>
+      <c r="EH5" s="3"/>
+      <c r="EI5" s="3"/>
+      <c r="EJ5" s="3"/>
+      <c r="EK5" s="3"/>
+      <c r="EL5" s="3"/>
+      <c r="EM5" s="3"/>
+      <c r="EN5" s="3"/>
+      <c r="EO5" s="3"/>
+      <c r="EP5" s="3"/>
+      <c r="EQ5" s="3"/>
+      <c r="ER5" s="3"/>
+      <c r="ES5" s="3"/>
+      <c r="ET5" s="3"/>
+      <c r="EU5" s="3"/>
+      <c r="EV5" s="3"/>
+      <c r="EW5" s="3"/>
+      <c r="EX5" s="3"/>
+      <c r="EY5" s="3"/>
+      <c r="EZ5" s="3"/>
+      <c r="FA5" s="3"/>
+      <c r="FB5" s="3"/>
+      <c r="FC5" s="3"/>
+      <c r="FD5" s="3"/>
+      <c r="FE5" s="3"/>
+      <c r="FF5" s="3"/>
+      <c r="FG5" s="3"/>
+      <c r="FH5" s="3"/>
+      <c r="FI5" s="3"/>
+      <c r="FJ5" s="3"/>
+      <c r="FK5" s="3"/>
+      <c r="FL5" s="3"/>
+      <c r="FM5" s="3"/>
+      <c r="FN5" s="3"/>
+      <c r="FO5" s="3"/>
+      <c r="FP5" s="3"/>
+      <c r="FQ5" s="3"/>
+      <c r="FR5" s="3"/>
+      <c r="FS5" s="3"/>
+      <c r="FT5" s="3"/>
+      <c r="FU5" s="3"/>
+      <c r="FV5" s="3"/>
+      <c r="FW5" s="3"/>
+      <c r="FX5" s="3"/>
+      <c r="FY5" s="3"/>
+      <c r="FZ5" s="3"/>
+      <c r="GA5" s="3"/>
+      <c r="GB5" s="3"/>
+      <c r="GC5" s="3"/>
+      <c r="GD5" s="3"/>
+      <c r="GE5" s="3"/>
+      <c r="GF5" s="3"/>
+      <c r="GG5" s="3"/>
+      <c r="GH5" s="3"/>
+      <c r="GI5" s="3"/>
+      <c r="GJ5" s="3"/>
+      <c r="GK5" s="3"/>
+      <c r="GL5" s="3"/>
+      <c r="GM5" s="3"/>
+      <c r="GN5" s="3"/>
+      <c r="GO5" s="3"/>
+      <c r="GP5" s="3"/>
+      <c r="GQ5" s="3"/>
+      <c r="GR5" s="3"/>
+      <c r="GS5" s="3"/>
+      <c r="GT5" s="3"/>
+      <c r="GU5" s="3"/>
+      <c r="GV5" s="3"/>
+      <c r="GW5" s="3"/>
+      <c r="GX5" s="3"/>
+      <c r="GY5" s="3"/>
+      <c r="GZ5" s="3"/>
+      <c r="HA5" s="3"/>
+      <c r="HB5" s="3"/>
+      <c r="HC5" s="3"/>
+      <c r="HD5" s="3"/>
+      <c r="HE5" s="3"/>
+      <c r="HF5" s="3"/>
+      <c r="HG5" s="3"/>
+      <c r="HH5" s="3"/>
+      <c r="HI5" s="3"/>
+      <c r="HJ5" s="3"/>
+      <c r="HK5" s="3"/>
+      <c r="HL5" s="3"/>
+      <c r="HM5" s="3"/>
+      <c r="HN5" s="3"/>
+      <c r="HO5" s="3"/>
+      <c r="HP5" s="3"/>
+      <c r="HQ5" s="3"/>
+      <c r="HR5" s="3"/>
+      <c r="HS5" s="3"/>
+      <c r="HT5" s="3"/>
+      <c r="HU5" s="3"/>
+      <c r="HV5" s="3"/>
+      <c r="HW5" s="3"/>
+      <c r="HX5" s="3"/>
+      <c r="HY5" s="3"/>
+      <c r="HZ5" s="3"/>
+      <c r="IA5" s="3"/>
+      <c r="IB5" s="3"/>
+      <c r="IC5" s="3"/>
+      <c r="ID5" s="3"/>
+      <c r="IE5" s="3"/>
+      <c r="IF5" s="3"/>
+      <c r="IG5" s="3"/>
+      <c r="IH5" s="3"/>
+      <c r="II5" s="3"/>
+      <c r="IJ5" s="3"/>
+      <c r="IK5" s="3"/>
+      <c r="IL5" s="3"/>
+      <c r="IM5" s="3"/>
+      <c r="IN5" s="3"/>
+      <c r="IO5" s="3"/>
+      <c r="IP5" s="3"/>
+      <c r="IQ5" s="3"/>
+      <c r="IR5" s="3"/>
+      <c r="IS5" s="3"/>
+      <c r="IT5" s="3"/>
+      <c r="IU5" s="3"/>
+      <c r="IV5" s="3"/>
+      <c r="IW5" s="3"/>
+      <c r="IX5" s="3"/>
+      <c r="IY5" s="3"/>
+      <c r="IZ5" s="3"/>
+      <c r="JA5" s="3"/>
+      <c r="JB5" s="3"/>
+      <c r="JC5" s="3"/>
+      <c r="JD5" s="3"/>
+      <c r="JE5" s="3"/>
+      <c r="JF5" s="3"/>
+      <c r="JG5" s="3"/>
+      <c r="JH5" s="3"/>
+      <c r="JI5" s="3"/>
+      <c r="JJ5" s="3"/>
+      <c r="JK5" s="3"/>
+      <c r="JL5" s="3"/>
+      <c r="JM5" s="3"/>
+      <c r="JN5" s="3"/>
+    </row>
+    <row r="6" spans="1:276" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="3"/>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="3"/>
+      <c r="BI6" s="3"/>
+      <c r="BJ6" s="3"/>
+      <c r="BK6" s="3"/>
+      <c r="BL6" s="3"/>
+      <c r="BM6" s="3"/>
+      <c r="BN6" s="3"/>
+      <c r="BO6" s="3"/>
+      <c r="BP6" s="3"/>
+      <c r="BQ6" s="3"/>
+      <c r="BR6" s="3"/>
+      <c r="BS6" s="3"/>
+      <c r="BT6" s="3"/>
+      <c r="BU6" s="3"/>
+      <c r="BV6" s="3"/>
+      <c r="BW6" s="3"/>
+      <c r="BX6" s="3"/>
+      <c r="BY6" s="3"/>
+      <c r="BZ6" s="3"/>
+      <c r="CA6" s="3"/>
+      <c r="CB6" s="3"/>
+      <c r="CC6" s="3"/>
+      <c r="CD6" s="3"/>
+      <c r="CE6" s="3"/>
+      <c r="CF6" s="3"/>
+      <c r="CG6" s="3"/>
+      <c r="CH6" s="3"/>
+      <c r="CI6" s="3"/>
+      <c r="CJ6" s="3"/>
+      <c r="CK6" s="3"/>
+      <c r="CL6" s="3"/>
+      <c r="CM6" s="3"/>
+      <c r="CN6" s="3"/>
+      <c r="CO6" s="3"/>
+      <c r="CP6" s="3"/>
+      <c r="CQ6" s="3"/>
+      <c r="CR6" s="3"/>
+      <c r="CS6" s="3"/>
+      <c r="CT6" s="3"/>
+      <c r="CU6" s="3"/>
+      <c r="CV6" s="3"/>
+      <c r="CW6" s="3"/>
+      <c r="CX6" s="3"/>
+      <c r="CY6" s="3"/>
+      <c r="CZ6" s="3"/>
+      <c r="DA6" s="3"/>
+      <c r="DB6" s="3"/>
+      <c r="DC6" s="3"/>
+      <c r="DD6" s="3"/>
+      <c r="DE6" s="3"/>
+      <c r="DF6" s="3"/>
+      <c r="DG6" s="3"/>
+      <c r="DH6" s="3"/>
+      <c r="DI6" s="3"/>
+      <c r="DJ6" s="3"/>
+      <c r="DK6" s="3"/>
+      <c r="DL6" s="3"/>
+      <c r="DM6" s="3"/>
+      <c r="DN6" s="3"/>
+      <c r="DO6" s="3"/>
+      <c r="DP6" s="3"/>
+      <c r="DQ6" s="3"/>
+      <c r="DR6" s="3"/>
+      <c r="DS6" s="3"/>
+      <c r="DT6" s="3"/>
+      <c r="DU6" s="3"/>
+      <c r="DV6" s="3"/>
+      <c r="DW6" s="3"/>
+      <c r="DX6" s="3"/>
+      <c r="DY6" s="3"/>
+      <c r="DZ6" s="3"/>
+      <c r="EA6" s="3"/>
+      <c r="EB6" s="3"/>
+      <c r="EC6" s="3"/>
+      <c r="ED6" s="3"/>
+      <c r="EE6" s="3"/>
+      <c r="EF6" s="3"/>
+      <c r="EG6" s="3"/>
+      <c r="EH6" s="3"/>
+      <c r="EI6" s="3"/>
+      <c r="EJ6" s="3"/>
+      <c r="EK6" s="3"/>
+      <c r="EL6" s="3"/>
+      <c r="EM6" s="3"/>
+      <c r="EN6" s="3"/>
+      <c r="EO6" s="3"/>
+      <c r="EP6" s="3"/>
+      <c r="EQ6" s="3"/>
+      <c r="ER6" s="3"/>
+      <c r="ES6" s="3"/>
+      <c r="ET6" s="3"/>
+      <c r="EU6" s="3"/>
+      <c r="EV6" s="3"/>
+      <c r="EW6" s="3"/>
+      <c r="EX6" s="3"/>
+      <c r="EY6" s="3"/>
+      <c r="EZ6" s="3"/>
+      <c r="FA6" s="3"/>
+      <c r="FB6" s="3"/>
+      <c r="FC6" s="3"/>
+      <c r="FD6" s="3"/>
+      <c r="FE6" s="3"/>
+      <c r="FF6" s="3"/>
+      <c r="FG6" s="3"/>
+      <c r="FH6" s="3"/>
+      <c r="FI6" s="3"/>
+      <c r="FJ6" s="3"/>
+      <c r="FK6" s="3"/>
+      <c r="FL6" s="3"/>
+      <c r="FM6" s="3"/>
+      <c r="FN6" s="3"/>
+      <c r="FO6" s="3"/>
+      <c r="FP6" s="3"/>
+      <c r="FQ6" s="3"/>
+      <c r="FR6" s="3"/>
+      <c r="FS6" s="3"/>
+      <c r="FT6" s="3"/>
+      <c r="FU6" s="3"/>
+      <c r="FV6" s="3"/>
+      <c r="FW6" s="3"/>
+      <c r="FX6" s="3"/>
+      <c r="FY6" s="3"/>
+      <c r="FZ6" s="3"/>
+      <c r="GA6" s="3"/>
+      <c r="GB6" s="3"/>
+      <c r="GC6" s="3"/>
+      <c r="GD6" s="3"/>
+      <c r="GE6" s="3"/>
+      <c r="GF6" s="3"/>
+      <c r="GG6" s="3"/>
+      <c r="GH6" s="3"/>
+      <c r="GI6" s="3"/>
+      <c r="GJ6" s="3"/>
+      <c r="GK6" s="3"/>
+      <c r="GL6" s="3"/>
+      <c r="GM6" s="3"/>
+      <c r="GN6" s="3"/>
+      <c r="GO6" s="3"/>
+      <c r="GP6" s="3"/>
+      <c r="GQ6" s="3"/>
+      <c r="GR6" s="3"/>
+      <c r="GS6" s="3"/>
+      <c r="GT6" s="3"/>
+      <c r="GU6" s="3"/>
+      <c r="GV6" s="3"/>
+      <c r="GW6" s="3"/>
+      <c r="GX6" s="3"/>
+      <c r="GY6" s="3"/>
+      <c r="GZ6" s="3"/>
+      <c r="HA6" s="3"/>
+      <c r="HB6" s="3"/>
+      <c r="HC6" s="3"/>
+      <c r="HD6" s="3"/>
+      <c r="HE6" s="3"/>
+      <c r="HF6" s="3"/>
+      <c r="HG6" s="3"/>
+      <c r="HH6" s="3"/>
+      <c r="HI6" s="3"/>
+      <c r="HJ6" s="3"/>
+      <c r="HK6" s="3"/>
+      <c r="HL6" s="3"/>
+      <c r="HM6" s="3"/>
+      <c r="HN6" s="3"/>
+      <c r="HO6" s="3"/>
+      <c r="HP6" s="3"/>
+      <c r="HQ6" s="3"/>
+      <c r="HR6" s="3"/>
+      <c r="HS6" s="3"/>
+      <c r="HT6" s="3"/>
+      <c r="HU6" s="3"/>
+      <c r="HV6" s="3"/>
+      <c r="HW6" s="3"/>
+      <c r="HX6" s="3"/>
+      <c r="HY6" s="3"/>
+      <c r="HZ6" s="3"/>
+      <c r="IA6" s="3"/>
+      <c r="IB6" s="3"/>
+      <c r="IC6" s="3"/>
+      <c r="ID6" s="3"/>
+      <c r="IE6" s="3"/>
+      <c r="IF6" s="3"/>
+      <c r="IG6" s="3"/>
+      <c r="IH6" s="3"/>
+      <c r="II6" s="3"/>
+      <c r="IJ6" s="3"/>
+      <c r="IK6" s="3"/>
+      <c r="IL6" s="3"/>
+      <c r="IM6" s="3"/>
+      <c r="IN6" s="3"/>
+      <c r="IO6" s="3"/>
+      <c r="IP6" s="3"/>
+      <c r="IQ6" s="3"/>
+      <c r="IR6" s="3"/>
+      <c r="IS6" s="3"/>
+      <c r="IT6" s="3"/>
+      <c r="IU6" s="3"/>
+      <c r="IV6" s="3"/>
+      <c r="IW6" s="3"/>
+      <c r="IX6" s="3"/>
+      <c r="IY6" s="3"/>
+      <c r="IZ6" s="3"/>
+      <c r="JA6" s="3"/>
+      <c r="JB6" s="3"/>
+      <c r="JC6" s="3"/>
+      <c r="JD6" s="3"/>
+      <c r="JE6" s="3"/>
+      <c r="JF6" s="3"/>
+      <c r="JG6" s="3"/>
+      <c r="JH6" s="3"/>
+      <c r="JI6" s="3"/>
+      <c r="JJ6" s="3"/>
+      <c r="JK6" s="3"/>
+      <c r="JL6" s="3"/>
+      <c r="JM6" s="3"/>
+      <c r="JN6" s="3"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="46">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="AO1:AT1"/>
+    <mergeCell ref="DI1:DN1"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AI1:AN1"/>
+    <mergeCell ref="CK1:CP1"/>
+    <mergeCell ref="CQ1:CV1"/>
+    <mergeCell ref="CW1:DB1"/>
+    <mergeCell ref="DC1:DH1"/>
+    <mergeCell ref="CE1:CJ1"/>
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="BG1:BL1"/>
+    <mergeCell ref="BM1:BR1"/>
+    <mergeCell ref="BS1:BX1"/>
+    <mergeCell ref="BY1:CD1"/>
+    <mergeCell ref="GC1:GH1"/>
+    <mergeCell ref="DO1:DT1"/>
+    <mergeCell ref="DU1:DZ1"/>
+    <mergeCell ref="EA1:EF1"/>
+    <mergeCell ref="EG1:EL1"/>
+    <mergeCell ref="EM1:ER1"/>
+    <mergeCell ref="ES1:EX1"/>
+    <mergeCell ref="EY1:FD1"/>
+    <mergeCell ref="FE1:FJ1"/>
+    <mergeCell ref="FK1:FP1"/>
+    <mergeCell ref="FQ1:FV1"/>
+    <mergeCell ref="FW1:GB1"/>
+    <mergeCell ref="IW1:JB1"/>
+    <mergeCell ref="JC1:JH1"/>
+    <mergeCell ref="JI1:JN1"/>
+    <mergeCell ref="GI1:GN1"/>
+    <mergeCell ref="GO1:GT1"/>
+    <mergeCell ref="HA1:HF1"/>
+    <mergeCell ref="HG1:HL1"/>
+    <mergeCell ref="HM1:HR1"/>
+    <mergeCell ref="HS1:HX1"/>
+    <mergeCell ref="GU1:GZ1"/>
+    <mergeCell ref="IQ1:IV1"/>
+    <mergeCell ref="IK1:IP1"/>
+    <mergeCell ref="HY1:ID1"/>
+    <mergeCell ref="IE1:IJ1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CT5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="23.125" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="10" max="10" width="22.875" customWidth="1"/>
+    <col min="12" max="12" width="23.875" customWidth="1"/>
+    <col min="14" max="14" width="25.125" customWidth="1"/>
+    <col min="16" max="16" width="18.75" customWidth="1"/>
+    <col min="26" max="26" width="22.5" customWidth="1"/>
+    <col min="28" max="28" width="20.875" customWidth="1"/>
+    <col min="30" max="30" width="24.75" customWidth="1"/>
+    <col min="32" max="32" width="24.5" customWidth="1"/>
+    <col min="34" max="34" width="27.375" customWidth="1"/>
+    <col min="36" max="36" width="19.25" customWidth="1"/>
+    <col min="38" max="38" width="22.25" customWidth="1"/>
+    <col min="40" max="40" width="23.75" customWidth="1"/>
+    <col min="42" max="42" width="24.25" customWidth="1"/>
+    <col min="44" max="44" width="25.25" customWidth="1"/>
+    <col min="46" max="46" width="26.625" customWidth="1"/>
+    <col min="48" max="48" width="29.75" customWidth="1"/>
+    <col min="50" max="50" width="26.875" customWidth="1"/>
+    <col min="52" max="52" width="27.5" customWidth="1"/>
+    <col min="54" max="54" width="20" customWidth="1"/>
+    <col min="56" max="56" width="19.625" customWidth="1"/>
+    <col min="58" max="58" width="18.75" customWidth="1"/>
+    <col min="60" max="60" width="20.875" customWidth="1"/>
+    <col min="62" max="62" width="25.125" customWidth="1"/>
+    <col min="64" max="64" width="28.125" customWidth="1"/>
+    <col min="66" max="66" width="25.5" customWidth="1"/>
+    <col min="67" max="67" width="9.25" customWidth="1"/>
+    <col min="68" max="68" width="24.75" customWidth="1"/>
+    <col min="70" max="70" width="17.75" customWidth="1"/>
+    <col min="72" max="72" width="20.75" customWidth="1"/>
+    <col min="74" max="74" width="19" customWidth="1"/>
+    <col min="76" max="76" width="24.75" customWidth="1"/>
+    <col min="78" max="78" width="26.625" customWidth="1"/>
+    <col min="80" max="80" width="26.625" customWidth="1"/>
+    <col min="82" max="82" width="32.625" customWidth="1"/>
+    <col min="84" max="84" width="20.375" customWidth="1"/>
+    <col min="86" max="86" width="22.125" customWidth="1"/>
+    <col min="88" max="88" width="23.5" customWidth="1"/>
+    <col min="97" max="97" width="18.25" customWidth="1"/>
+    <col min="98" max="98" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:98" s="2" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="31"/>
+      <c r="G1" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="27"/>
+      <c r="I1" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="27"/>
+      <c r="K1" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="27"/>
+      <c r="M1" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" s="27"/>
+      <c r="O1" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AV1" s="27"/>
+      <c r="AW1" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX1" s="27"/>
+      <c r="AY1" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ1" s="27"/>
+      <c r="BA1" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB1" s="28"/>
+      <c r="BC1" s="28"/>
+      <c r="BD1" s="28"/>
+      <c r="BE1" s="28"/>
+      <c r="BF1" s="28"/>
+      <c r="BG1" s="28"/>
+      <c r="BH1" s="29"/>
+      <c r="BI1" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ1" s="27"/>
+      <c r="BK1" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="BL1" s="32"/>
+      <c r="BM1" s="32"/>
+      <c r="BN1" s="33"/>
+      <c r="BO1" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="BP1" s="28"/>
+      <c r="BQ1" s="28"/>
+      <c r="BR1" s="28"/>
+      <c r="BS1" s="28"/>
+      <c r="BT1" s="28"/>
+      <c r="BU1" s="28"/>
+      <c r="BV1" s="28"/>
+      <c r="BW1" s="28"/>
+      <c r="BX1" s="29"/>
+      <c r="BY1" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ1" s="27"/>
+      <c r="CA1" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="CB1" s="27"/>
+      <c r="CC1" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="CD1" s="27"/>
+      <c r="CE1" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="CF1" s="32"/>
+      <c r="CG1" s="32"/>
+      <c r="CH1" s="33"/>
+      <c r="CI1" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="CJ1" s="27"/>
+      <c r="CK1" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="CL1" s="28"/>
+      <c r="CM1" s="28"/>
+      <c r="CN1" s="28"/>
+      <c r="CO1" s="28"/>
+      <c r="CP1" s="28"/>
+      <c r="CQ1" s="28"/>
+      <c r="CR1" s="29"/>
+      <c r="CS1" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="CT1" s="34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:98" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AY2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="BD2" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="BE2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="BF2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="BG2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="BI2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="BK2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL2" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="BM2" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="BN2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="BP2" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ2" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="BR2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS2" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="BT2" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU2" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="BV2" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="BW2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="BY2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="CA2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="CC2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="CE2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="CF2" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG2" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="CH2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="CI2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="CJ2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="CK2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="CL2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="CN2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="CO2" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="CP2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="CQ2" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="CR2" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="6"/>
+      <c r="BA3" s="6"/>
+      <c r="BB3" s="6"/>
+      <c r="BC3" s="6"/>
+      <c r="BD3" s="6"/>
+      <c r="BE3" s="6"/>
+      <c r="BF3" s="6"/>
+      <c r="BG3" s="6"/>
+      <c r="BH3" s="6"/>
+      <c r="BI3" s="6"/>
+      <c r="BJ3" s="6"/>
+      <c r="BK3" s="6"/>
+      <c r="BL3" s="6"/>
+      <c r="BM3" s="6"/>
+      <c r="BN3" s="6"/>
+      <c r="BO3" s="6"/>
+      <c r="BP3" s="6"/>
+      <c r="BQ3" s="6"/>
+      <c r="BR3" s="6"/>
+      <c r="BS3" s="6"/>
+      <c r="BT3" s="6"/>
+      <c r="BU3" s="6"/>
+      <c r="BV3" s="6"/>
+      <c r="BW3" s="6"/>
+      <c r="BX3" s="6"/>
+      <c r="BY3" s="6"/>
+      <c r="BZ3" s="6"/>
+      <c r="CA3" s="6"/>
+      <c r="CB3" s="6"/>
+      <c r="CC3" s="6"/>
+      <c r="CD3" s="6"/>
+      <c r="CE3" s="6"/>
+      <c r="CF3" s="6"/>
+      <c r="CG3" s="6"/>
+      <c r="CH3" s="6"/>
+      <c r="CI3" s="6"/>
+      <c r="CJ3" s="6"/>
+      <c r="CK3" s="6"/>
+      <c r="CL3" s="6"/>
+      <c r="CM3" s="6"/>
+      <c r="CN3" s="6"/>
+      <c r="CO3" s="6"/>
+      <c r="CP3" s="6"/>
+      <c r="CQ3" s="6"/>
+      <c r="CR3" s="6"/>
+    </row>
+    <row r="4" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="6"/>
+      <c r="AY4" s="6"/>
+      <c r="AZ4" s="6"/>
+      <c r="BA4" s="6"/>
+      <c r="BB4" s="6"/>
+      <c r="BC4" s="6"/>
+      <c r="BD4" s="6"/>
+      <c r="BE4" s="6"/>
+      <c r="BF4" s="6"/>
+      <c r="BG4" s="6"/>
+      <c r="BH4" s="6"/>
+      <c r="BI4" s="6"/>
+      <c r="BJ4" s="6"/>
+      <c r="BK4" s="6"/>
+      <c r="BL4" s="6"/>
+      <c r="BM4" s="6"/>
+      <c r="BN4" s="6"/>
+      <c r="BO4" s="6"/>
+      <c r="BP4" s="6"/>
+      <c r="BQ4" s="6"/>
+      <c r="BR4" s="6"/>
+      <c r="BS4" s="6"/>
+      <c r="BT4" s="6"/>
+      <c r="BU4" s="6"/>
+      <c r="BV4" s="6"/>
+      <c r="BW4" s="6"/>
+      <c r="BX4" s="6"/>
+      <c r="BY4" s="6"/>
+      <c r="BZ4" s="6"/>
+      <c r="CA4" s="6"/>
+      <c r="CB4" s="6"/>
+      <c r="CC4" s="6"/>
+      <c r="CD4" s="6"/>
+      <c r="CE4" s="6"/>
+      <c r="CF4" s="6"/>
+      <c r="CG4" s="6"/>
+      <c r="CH4" s="6"/>
+      <c r="CI4" s="6"/>
+      <c r="CJ4" s="6"/>
+      <c r="CK4" s="6"/>
+      <c r="CL4" s="6"/>
+      <c r="CM4" s="6"/>
+      <c r="CN4" s="6"/>
+      <c r="CO4" s="6"/>
+      <c r="CP4" s="6"/>
+      <c r="CQ4" s="6"/>
+      <c r="CR4" s="6"/>
+    </row>
+    <row r="5" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="6"/>
+      <c r="AW5" s="6"/>
+      <c r="AX5" s="6"/>
+      <c r="AY5" s="6"/>
+      <c r="AZ5" s="6"/>
+      <c r="BA5" s="6"/>
+      <c r="BB5" s="6"/>
+      <c r="BC5" s="6"/>
+      <c r="BD5" s="6"/>
+      <c r="BE5" s="6"/>
+      <c r="BF5" s="6"/>
+      <c r="BG5" s="6"/>
+      <c r="BH5" s="6"/>
+      <c r="BI5" s="6"/>
+      <c r="BJ5" s="6"/>
+      <c r="BK5" s="6"/>
+      <c r="BL5" s="6"/>
+      <c r="BM5" s="6"/>
+      <c r="BN5" s="6"/>
+      <c r="BO5" s="6"/>
+      <c r="BP5" s="6"/>
+      <c r="BQ5" s="6"/>
+      <c r="BR5" s="6"/>
+      <c r="BS5" s="6"/>
+      <c r="BT5" s="6"/>
+      <c r="BU5" s="6"/>
+      <c r="BV5" s="6"/>
+      <c r="BW5" s="6"/>
+      <c r="BX5" s="6"/>
+      <c r="BY5" s="6"/>
+      <c r="BZ5" s="6"/>
+      <c r="CA5" s="6"/>
+      <c r="CB5" s="6"/>
+      <c r="CC5" s="6"/>
+      <c r="CD5" s="6"/>
+      <c r="CE5" s="6"/>
+      <c r="CF5" s="6"/>
+      <c r="CG5" s="6"/>
+      <c r="CH5" s="6"/>
+      <c r="CI5" s="6"/>
+      <c r="CJ5" s="6"/>
+      <c r="CK5" s="6"/>
+      <c r="CL5" s="6"/>
+      <c r="CM5" s="6"/>
+      <c r="CN5" s="6"/>
+      <c r="CO5" s="6"/>
+      <c r="CP5" s="6"/>
+      <c r="CQ5" s="6"/>
+      <c r="CR5" s="6"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="32">
+    <mergeCell ref="CK1:CR1"/>
+    <mergeCell ref="BA1:BH1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BK1:BN1"/>
+    <mergeCell ref="BO1:BX1"/>
+    <mergeCell ref="BY1:BZ1"/>
+    <mergeCell ref="CA1:CB1"/>
+    <mergeCell ref="CC1:CD1"/>
+    <mergeCell ref="CE1:CH1"/>
+    <mergeCell ref="CI1:CJ1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="21.875" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>